--- a/GradeBook_Unsolved.xlsx
+++ b/GradeBook_Unsolved.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\1\Activities\08-Stu_GradeBook\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenabormegah/Desktop/homework1/RDSBOOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B912CA55-785B-5E4E-9204-1ED919252A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14380" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
   <si>
     <t>Student Name</t>
   </si>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,21 +496,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155:F178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -553,7 +554,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -571,7 +572,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -589,7 +590,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -607,7 +608,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -625,7 +626,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -643,7 +644,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -661,7 +662,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -679,7 +680,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -697,7 +698,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -715,7 +716,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -733,7 +734,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -751,7 +752,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -769,7 +770,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -787,7 +788,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -805,7 +806,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -823,7 +824,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -841,7 +842,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -859,7 +860,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -877,7 +878,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -895,7 +896,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -913,7 +914,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -931,7 +932,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -949,7 +950,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -966,6 +967,2046 @@
         <v>53</v>
       </c>
       <c r="F25" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>85</v>
+      </c>
+      <c r="D28" s="2">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2">
+        <v>90</v>
+      </c>
+      <c r="F28" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2">
+        <v>57</v>
+      </c>
+      <c r="E29" s="2">
+        <v>97</v>
+      </c>
+      <c r="F29" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2">
+        <v>52</v>
+      </c>
+      <c r="E31" s="2">
+        <v>64</v>
+      </c>
+      <c r="F31" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>89</v>
+      </c>
+      <c r="D32" s="2">
+        <v>57</v>
+      </c>
+      <c r="E32" s="2">
+        <v>90</v>
+      </c>
+      <c r="F32" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2">
+        <v>93</v>
+      </c>
+      <c r="E33" s="2">
+        <v>97</v>
+      </c>
+      <c r="F33" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2">
+        <v>90</v>
+      </c>
+      <c r="E34" s="2">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>67</v>
+      </c>
+      <c r="D35" s="2">
+        <v>62</v>
+      </c>
+      <c r="E35" s="2">
+        <v>48</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
+        <v>100</v>
+      </c>
+      <c r="D36" s="2">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2">
+        <v>90</v>
+      </c>
+      <c r="F36" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2">
+        <v>88</v>
+      </c>
+      <c r="D37" s="2">
+        <v>61</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45</v>
+      </c>
+      <c r="F37" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2">
+        <v>87</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43</v>
+      </c>
+      <c r="F38" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
+        <v>83</v>
+      </c>
+      <c r="D39" s="2">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2">
+        <v>67</v>
+      </c>
+      <c r="F39" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2">
+        <v>59</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43</v>
+      </c>
+      <c r="F40" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>54</v>
+      </c>
+      <c r="D41" s="2">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2">
+        <v>92</v>
+      </c>
+      <c r="F41" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2">
+        <v>73</v>
+      </c>
+      <c r="D42" s="2">
+        <v>98</v>
+      </c>
+      <c r="E42" s="2">
+        <v>59</v>
+      </c>
+      <c r="F42" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>75</v>
+      </c>
+      <c r="D43" s="2">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2">
+        <v>87</v>
+      </c>
+      <c r="F43" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2">
+        <v>90</v>
+      </c>
+      <c r="D44" s="2">
+        <v>97</v>
+      </c>
+      <c r="E44" s="2">
+        <v>100</v>
+      </c>
+      <c r="F44" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2">
+        <v>95</v>
+      </c>
+      <c r="D45" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2">
+        <v>88</v>
+      </c>
+      <c r="F45" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>66</v>
+      </c>
+      <c r="D46" s="2">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2">
+        <v>93</v>
+      </c>
+      <c r="F46" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2">
+        <v>92</v>
+      </c>
+      <c r="F47" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2">
+        <v>94</v>
+      </c>
+      <c r="D48" s="2">
+        <v>92</v>
+      </c>
+      <c r="E48" s="2">
+        <v>86</v>
+      </c>
+      <c r="F48" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2">
+        <v>55</v>
+      </c>
+      <c r="D49" s="2">
+        <v>52</v>
+      </c>
+      <c r="E49" s="2">
+        <v>76</v>
+      </c>
+      <c r="F49" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44</v>
+      </c>
+      <c r="E50" s="2">
+        <v>95</v>
+      </c>
+      <c r="F50" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2">
+        <v>53</v>
+      </c>
+      <c r="D51" s="2">
+        <v>97</v>
+      </c>
+      <c r="E51" s="2">
+        <v>74</v>
+      </c>
+      <c r="F51" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>85</v>
+      </c>
+      <c r="E53" s="2">
+        <v>84</v>
+      </c>
+      <c r="F53" s="2">
+        <v>90</v>
+      </c>
+      <c r="G53" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2">
+        <v>48</v>
+      </c>
+      <c r="E54" s="2">
+        <v>57</v>
+      </c>
+      <c r="F54" s="2">
+        <v>97</v>
+      </c>
+      <c r="G54" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2">
+        <v>96</v>
+      </c>
+      <c r="E55" s="2">
+        <v>100</v>
+      </c>
+      <c r="F55" s="2">
+        <v>97</v>
+      </c>
+      <c r="G55" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2">
+        <v>52</v>
+      </c>
+      <c r="E56" s="2">
+        <v>52</v>
+      </c>
+      <c r="F56" s="2">
+        <v>64</v>
+      </c>
+      <c r="G56" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2">
+        <v>89</v>
+      </c>
+      <c r="E57" s="2">
+        <v>57</v>
+      </c>
+      <c r="F57" s="2">
+        <v>90</v>
+      </c>
+      <c r="G57" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="2">
+        <v>71</v>
+      </c>
+      <c r="E58" s="2">
+        <v>93</v>
+      </c>
+      <c r="F58" s="2">
+        <v>97</v>
+      </c>
+      <c r="G58" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2">
+        <v>97</v>
+      </c>
+      <c r="E59" s="2">
+        <v>90</v>
+      </c>
+      <c r="F59" s="2">
+        <v>70</v>
+      </c>
+      <c r="G59" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2">
+        <v>67</v>
+      </c>
+      <c r="E60" s="2">
+        <v>62</v>
+      </c>
+      <c r="F60" s="2">
+        <v>48</v>
+      </c>
+      <c r="G60" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2">
+        <v>100</v>
+      </c>
+      <c r="E61" s="2">
+        <v>94</v>
+      </c>
+      <c r="F61" s="2">
+        <v>90</v>
+      </c>
+      <c r="G61" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2">
+        <v>88</v>
+      </c>
+      <c r="E62" s="2">
+        <v>61</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45</v>
+      </c>
+      <c r="G62" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44</v>
+      </c>
+      <c r="E63" s="2">
+        <v>87</v>
+      </c>
+      <c r="F63" s="2">
+        <v>43</v>
+      </c>
+      <c r="G63" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2">
+        <v>83</v>
+      </c>
+      <c r="E64" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" s="2">
+        <v>67</v>
+      </c>
+      <c r="G64" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2">
+        <v>59</v>
+      </c>
+      <c r="E65" s="2">
+        <v>43</v>
+      </c>
+      <c r="F65" s="2">
+        <v>43</v>
+      </c>
+      <c r="G65" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="2">
+        <v>54</v>
+      </c>
+      <c r="E66" s="2">
+        <v>47</v>
+      </c>
+      <c r="F66" s="2">
+        <v>92</v>
+      </c>
+      <c r="G66" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2">
+        <v>73</v>
+      </c>
+      <c r="E67" s="2">
+        <v>98</v>
+      </c>
+      <c r="F67" s="2">
+        <v>59</v>
+      </c>
+      <c r="G67" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="2">
+        <v>75</v>
+      </c>
+      <c r="E68" s="2">
+        <v>72</v>
+      </c>
+      <c r="F68" s="2">
+        <v>87</v>
+      </c>
+      <c r="G68" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="2">
+        <v>90</v>
+      </c>
+      <c r="E69" s="2">
+        <v>97</v>
+      </c>
+      <c r="F69" s="2">
+        <v>100</v>
+      </c>
+      <c r="G69" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="2">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2">
+        <v>80</v>
+      </c>
+      <c r="F70" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="2">
+        <v>66</v>
+      </c>
+      <c r="E71" s="2">
+        <v>100</v>
+      </c>
+      <c r="F71" s="2">
+        <v>93</v>
+      </c>
+      <c r="G71" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="2">
+        <v>46</v>
+      </c>
+      <c r="E72" s="2">
+        <v>74</v>
+      </c>
+      <c r="F72" s="2">
+        <v>92</v>
+      </c>
+      <c r="G72" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2">
+        <v>94</v>
+      </c>
+      <c r="E73" s="2">
+        <v>92</v>
+      </c>
+      <c r="F73" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="2">
+        <v>55</v>
+      </c>
+      <c r="E74" s="2">
+        <v>52</v>
+      </c>
+      <c r="F74" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="2">
+        <v>41</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44</v>
+      </c>
+      <c r="F75" s="2">
+        <v>95</v>
+      </c>
+      <c r="G75" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="2">
+        <v>53</v>
+      </c>
+      <c r="E76" s="2">
+        <v>97</v>
+      </c>
+      <c r="F76" s="2">
+        <v>74</v>
+      </c>
+      <c r="G76" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2">
+        <v>85</v>
+      </c>
+      <c r="C85" s="2">
+        <v>84</v>
+      </c>
+      <c r="D85" s="2">
+        <v>90</v>
+      </c>
+      <c r="E85" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="2">
+        <v>48</v>
+      </c>
+      <c r="C86" s="2">
+        <v>57</v>
+      </c>
+      <c r="D86" s="2">
+        <v>97</v>
+      </c>
+      <c r="E86" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="2">
+        <v>96</v>
+      </c>
+      <c r="C87" s="2">
+        <v>100</v>
+      </c>
+      <c r="D87" s="2">
+        <v>97</v>
+      </c>
+      <c r="E87" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="2">
+        <v>52</v>
+      </c>
+      <c r="C88" s="2">
+        <v>52</v>
+      </c>
+      <c r="D88" s="2">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="2">
+        <v>89</v>
+      </c>
+      <c r="C89" s="2">
+        <v>57</v>
+      </c>
+      <c r="D89" s="2">
+        <v>90</v>
+      </c>
+      <c r="E89" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="2">
+        <v>71</v>
+      </c>
+      <c r="C90" s="2">
+        <v>93</v>
+      </c>
+      <c r="D90" s="2">
+        <v>97</v>
+      </c>
+      <c r="E90" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="2">
+        <v>97</v>
+      </c>
+      <c r="C91" s="2">
+        <v>90</v>
+      </c>
+      <c r="D91" s="2">
+        <v>70</v>
+      </c>
+      <c r="E91" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="2">
+        <v>67</v>
+      </c>
+      <c r="C92" s="2">
+        <v>62</v>
+      </c>
+      <c r="D92" s="2">
+        <v>48</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="2">
+        <v>100</v>
+      </c>
+      <c r="C93" s="2">
+        <v>94</v>
+      </c>
+      <c r="D93" s="2">
+        <v>90</v>
+      </c>
+      <c r="E93" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="2">
+        <v>88</v>
+      </c>
+      <c r="C94" s="2">
+        <v>61</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45</v>
+      </c>
+      <c r="E94" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44</v>
+      </c>
+      <c r="C95" s="2">
+        <v>87</v>
+      </c>
+      <c r="D95" s="2">
+        <v>43</v>
+      </c>
+      <c r="E95" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="2">
+        <v>83</v>
+      </c>
+      <c r="C96" s="2">
+        <v>42</v>
+      </c>
+      <c r="D96" s="2">
+        <v>67</v>
+      </c>
+      <c r="E96" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="2">
+        <v>59</v>
+      </c>
+      <c r="C97" s="2">
+        <v>43</v>
+      </c>
+      <c r="D97" s="2">
+        <v>43</v>
+      </c>
+      <c r="E97" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="2">
+        <v>54</v>
+      </c>
+      <c r="C98" s="2">
+        <v>47</v>
+      </c>
+      <c r="D98" s="2">
+        <v>92</v>
+      </c>
+      <c r="E98" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="2">
+        <v>73</v>
+      </c>
+      <c r="C99" s="2">
+        <v>98</v>
+      </c>
+      <c r="D99" s="2">
+        <v>59</v>
+      </c>
+      <c r="E99" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="2">
+        <v>75</v>
+      </c>
+      <c r="C100" s="2">
+        <v>72</v>
+      </c>
+      <c r="D100" s="2">
+        <v>87</v>
+      </c>
+      <c r="E100" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="2">
+        <v>90</v>
+      </c>
+      <c r="C101" s="2">
+        <v>97</v>
+      </c>
+      <c r="D101" s="2">
+        <v>100</v>
+      </c>
+      <c r="E101" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="2">
+        <v>95</v>
+      </c>
+      <c r="C102" s="2">
+        <v>80</v>
+      </c>
+      <c r="D102" s="2">
+        <v>88</v>
+      </c>
+      <c r="E102" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="2">
+        <v>66</v>
+      </c>
+      <c r="C103" s="2">
+        <v>100</v>
+      </c>
+      <c r="D103" s="2">
+        <v>93</v>
+      </c>
+      <c r="E103" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="2">
+        <v>46</v>
+      </c>
+      <c r="C104" s="2">
+        <v>74</v>
+      </c>
+      <c r="D104" s="2">
+        <v>92</v>
+      </c>
+      <c r="E104" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="2">
+        <v>94</v>
+      </c>
+      <c r="C105" s="2">
+        <v>92</v>
+      </c>
+      <c r="D105" s="2">
+        <v>86</v>
+      </c>
+      <c r="E105" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="2">
+        <v>55</v>
+      </c>
+      <c r="C106" s="2">
+        <v>52</v>
+      </c>
+      <c r="D106" s="2">
+        <v>76</v>
+      </c>
+      <c r="E106" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="2">
+        <v>41</v>
+      </c>
+      <c r="C107" s="2">
+        <v>44</v>
+      </c>
+      <c r="D107" s="2">
+        <v>95</v>
+      </c>
+      <c r="E107" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="2">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2">
+        <v>97</v>
+      </c>
+      <c r="D108" s="2">
+        <v>74</v>
+      </c>
+      <c r="E108" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="2">
+        <v>85</v>
+      </c>
+      <c r="F120" s="2">
+        <v>84</v>
+      </c>
+      <c r="G120" s="2">
+        <v>90</v>
+      </c>
+      <c r="H120" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="2">
+        <v>48</v>
+      </c>
+      <c r="F121" s="2">
+        <v>57</v>
+      </c>
+      <c r="G121" s="2">
+        <v>97</v>
+      </c>
+      <c r="H121" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="2">
+        <v>96</v>
+      </c>
+      <c r="F122" s="2">
+        <v>100</v>
+      </c>
+      <c r="G122" s="2">
+        <v>97</v>
+      </c>
+      <c r="H122" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="2">
+        <v>52</v>
+      </c>
+      <c r="F123" s="2">
+        <v>52</v>
+      </c>
+      <c r="G123" s="2">
+        <v>64</v>
+      </c>
+      <c r="H123" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="124" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="2">
+        <v>89</v>
+      </c>
+      <c r="F124" s="2">
+        <v>57</v>
+      </c>
+      <c r="G124" s="2">
+        <v>90</v>
+      </c>
+      <c r="H124" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="2">
+        <v>71</v>
+      </c>
+      <c r="F125" s="2">
+        <v>93</v>
+      </c>
+      <c r="G125" s="2">
+        <v>97</v>
+      </c>
+      <c r="H125" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="2">
+        <v>97</v>
+      </c>
+      <c r="F126" s="2">
+        <v>90</v>
+      </c>
+      <c r="G126" s="2">
+        <v>70</v>
+      </c>
+      <c r="H126" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="2">
+        <v>67</v>
+      </c>
+      <c r="F127" s="2">
+        <v>62</v>
+      </c>
+      <c r="G127" s="2">
+        <v>48</v>
+      </c>
+      <c r="H127" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="2">
+        <v>100</v>
+      </c>
+      <c r="F128" s="2">
+        <v>94</v>
+      </c>
+      <c r="G128" s="2">
+        <v>90</v>
+      </c>
+      <c r="H128" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="2">
+        <v>88</v>
+      </c>
+      <c r="F129" s="2">
+        <v>61</v>
+      </c>
+      <c r="G129" s="2">
+        <v>45</v>
+      </c>
+      <c r="H129" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44</v>
+      </c>
+      <c r="F130" s="2">
+        <v>87</v>
+      </c>
+      <c r="G130" s="2">
+        <v>43</v>
+      </c>
+      <c r="H130" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="2">
+        <v>83</v>
+      </c>
+      <c r="F131" s="2">
+        <v>42</v>
+      </c>
+      <c r="G131" s="2">
+        <v>67</v>
+      </c>
+      <c r="H131" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="2">
+        <v>59</v>
+      </c>
+      <c r="F132" s="2">
+        <v>43</v>
+      </c>
+      <c r="G132" s="2">
+        <v>43</v>
+      </c>
+      <c r="H132" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="2">
+        <v>54</v>
+      </c>
+      <c r="F133" s="2">
+        <v>47</v>
+      </c>
+      <c r="G133" s="2">
+        <v>92</v>
+      </c>
+      <c r="H133" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="2">
+        <v>73</v>
+      </c>
+      <c r="F134" s="2">
+        <v>98</v>
+      </c>
+      <c r="G134" s="2">
+        <v>59</v>
+      </c>
+      <c r="H134" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="2">
+        <v>75</v>
+      </c>
+      <c r="F135" s="2">
+        <v>72</v>
+      </c>
+      <c r="G135" s="2">
+        <v>87</v>
+      </c>
+      <c r="H135" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" s="2">
+        <v>90</v>
+      </c>
+      <c r="F136" s="2">
+        <v>97</v>
+      </c>
+      <c r="G136" s="2">
+        <v>100</v>
+      </c>
+      <c r="H136" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="2">
+        <v>95</v>
+      </c>
+      <c r="F137" s="2">
+        <v>80</v>
+      </c>
+      <c r="G137" s="2">
+        <v>88</v>
+      </c>
+      <c r="H137" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="2">
+        <v>66</v>
+      </c>
+      <c r="F138" s="2">
+        <v>100</v>
+      </c>
+      <c r="G138" s="2">
+        <v>93</v>
+      </c>
+      <c r="H138" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="2">
+        <v>46</v>
+      </c>
+      <c r="F139" s="2">
+        <v>74</v>
+      </c>
+      <c r="G139" s="2">
+        <v>92</v>
+      </c>
+      <c r="H139" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="2">
+        <v>94</v>
+      </c>
+      <c r="F140" s="2">
+        <v>92</v>
+      </c>
+      <c r="G140" s="2">
+        <v>86</v>
+      </c>
+      <c r="H140" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="2">
+        <v>55</v>
+      </c>
+      <c r="F141" s="2">
+        <v>52</v>
+      </c>
+      <c r="G141" s="2">
+        <v>76</v>
+      </c>
+      <c r="H141" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>27</v>
+      </c>
+      <c r="E142" s="2">
+        <v>41</v>
+      </c>
+      <c r="F142" s="2">
+        <v>44</v>
+      </c>
+      <c r="G142" s="2">
+        <v>95</v>
+      </c>
+      <c r="H142" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>53</v>
+      </c>
+      <c r="F143" s="2">
+        <v>97</v>
+      </c>
+      <c r="G143" s="2">
+        <v>74</v>
+      </c>
+      <c r="H143" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="2">
+        <v>85</v>
+      </c>
+      <c r="D155" s="2">
+        <v>84</v>
+      </c>
+      <c r="E155" s="2">
+        <v>90</v>
+      </c>
+      <c r="F155" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="2">
+        <v>48</v>
+      </c>
+      <c r="D156" s="2">
+        <v>57</v>
+      </c>
+      <c r="E156" s="2">
+        <v>97</v>
+      </c>
+      <c r="F156" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="2">
+        <v>96</v>
+      </c>
+      <c r="D157" s="2">
+        <v>100</v>
+      </c>
+      <c r="E157" s="2">
+        <v>97</v>
+      </c>
+      <c r="F157" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="2">
+        <v>52</v>
+      </c>
+      <c r="D158" s="2">
+        <v>52</v>
+      </c>
+      <c r="E158" s="2">
+        <v>64</v>
+      </c>
+      <c r="F158" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="2">
+        <v>89</v>
+      </c>
+      <c r="D159" s="2">
+        <v>57</v>
+      </c>
+      <c r="E159" s="2">
+        <v>90</v>
+      </c>
+      <c r="F159" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="2">
+        <v>71</v>
+      </c>
+      <c r="D160" s="2">
+        <v>93</v>
+      </c>
+      <c r="E160" s="2">
+        <v>97</v>
+      </c>
+      <c r="F160" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="2">
+        <v>97</v>
+      </c>
+      <c r="D161" s="2">
+        <v>90</v>
+      </c>
+      <c r="E161" s="2">
+        <v>70</v>
+      </c>
+      <c r="F161" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="2">
+        <v>67</v>
+      </c>
+      <c r="D162" s="2">
+        <v>62</v>
+      </c>
+      <c r="E162" s="2">
+        <v>48</v>
+      </c>
+      <c r="F162" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="2">
+        <v>100</v>
+      </c>
+      <c r="D163" s="2">
+        <v>94</v>
+      </c>
+      <c r="E163" s="2">
+        <v>90</v>
+      </c>
+      <c r="F163" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="2">
+        <v>88</v>
+      </c>
+      <c r="D164" s="2">
+        <v>61</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45</v>
+      </c>
+      <c r="F164" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44</v>
+      </c>
+      <c r="D165" s="2">
+        <v>87</v>
+      </c>
+      <c r="E165" s="2">
+        <v>43</v>
+      </c>
+      <c r="F165" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" s="2">
+        <v>83</v>
+      </c>
+      <c r="D166" s="2">
+        <v>42</v>
+      </c>
+      <c r="E166" s="2">
+        <v>67</v>
+      </c>
+      <c r="F166" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="2">
+        <v>59</v>
+      </c>
+      <c r="D167" s="2">
+        <v>43</v>
+      </c>
+      <c r="E167" s="2">
+        <v>43</v>
+      </c>
+      <c r="F167" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="2">
+        <v>54</v>
+      </c>
+      <c r="D168" s="2">
+        <v>47</v>
+      </c>
+      <c r="E168" s="2">
+        <v>92</v>
+      </c>
+      <c r="F168" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="2">
+        <v>73</v>
+      </c>
+      <c r="D169" s="2">
+        <v>98</v>
+      </c>
+      <c r="E169" s="2">
+        <v>59</v>
+      </c>
+      <c r="F169" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="2">
+        <v>75</v>
+      </c>
+      <c r="D170" s="2">
+        <v>72</v>
+      </c>
+      <c r="E170" s="2">
+        <v>87</v>
+      </c>
+      <c r="F170" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" s="2">
+        <v>90</v>
+      </c>
+      <c r="D171" s="2">
+        <v>97</v>
+      </c>
+      <c r="E171" s="2">
+        <v>100</v>
+      </c>
+      <c r="F171" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="2">
+        <v>95</v>
+      </c>
+      <c r="D172" s="2">
+        <v>80</v>
+      </c>
+      <c r="E172" s="2">
+        <v>88</v>
+      </c>
+      <c r="F172" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="2">
+        <v>66</v>
+      </c>
+      <c r="D173" s="2">
+        <v>100</v>
+      </c>
+      <c r="E173" s="2">
+        <v>93</v>
+      </c>
+      <c r="F173" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" s="2">
+        <v>46</v>
+      </c>
+      <c r="D174" s="2">
+        <v>74</v>
+      </c>
+      <c r="E174" s="2">
+        <v>92</v>
+      </c>
+      <c r="F174" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" s="2">
+        <v>94</v>
+      </c>
+      <c r="D175" s="2">
+        <v>92</v>
+      </c>
+      <c r="E175" s="2">
+        <v>86</v>
+      </c>
+      <c r="F175" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="2">
+        <v>55</v>
+      </c>
+      <c r="D176" s="2">
+        <v>52</v>
+      </c>
+      <c r="E176" s="2">
+        <v>76</v>
+      </c>
+      <c r="F176" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="2">
+        <v>41</v>
+      </c>
+      <c r="D177" s="2">
+        <v>44</v>
+      </c>
+      <c r="E177" s="2">
+        <v>95</v>
+      </c>
+      <c r="F177" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="2">
+        <v>53</v>
+      </c>
+      <c r="D178" s="2">
+        <v>97</v>
+      </c>
+      <c r="E178" s="2">
+        <v>74</v>
+      </c>
+      <c r="F178" s="2">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
